--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/15/seed5/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.49</v>
+        <v>-13.543</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.858</v>
+        <v>5.043</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.778</v>
+        <v>-12.21</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.266</v>
+        <v>-13.04</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.334</v>
+        <v>5.542000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.332</v>
+        <v>-12.629</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.356</v>
+        <v>6.776000000000001</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.062</v>
+        <v>-12.311</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.112</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.606</v>
+        <v>-13.387</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.562</v>
+        <v>5.540000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.826</v>
+        <v>-12.776</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.22</v>
+        <v>6.366999999999999</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.968</v>
+        <v>-10.937</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.758000000000001</v>
+        <v>5.006</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.742</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.07</v>
+        <v>4.49</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.697</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.69</v>
+        <v>5.224</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.915999999999999</v>
+        <v>5.202</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.915999999999999</v>
+        <v>5.351000000000001</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.49</v>
+        <v>-13.319</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.884</v>
+        <v>5.315</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.1</v>
+        <v>-14.127</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.856</v>
+        <v>4.94</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>6.830000000000001</v>
+        <v>6.109</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.218</v>
+        <v>5.616</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>5.351999999999999</v>
+        <v>5.718000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.288</v>
+        <v>-13.144</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.702</v>
+        <v>-12.916</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
